--- a/Schablonen/EndoUntersuchung.xlsx
+++ b/Schablonen/EndoUntersuchung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675CFDE-8E9B-4321-AAE3-5241D6CCEC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE3BE62-A393-4352-846E-734DC53294BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6420" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Textbausteine befundeingabestru" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>Andere</t>
   </si>
   <si>
-    <t>\nAllgemeine Angaben:\n</t>
-  </si>
-  <si>
     <t>Untersucher: %A1%\n</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>\n\Untersuchung\n</t>
-  </si>
-  <si>
     <t>Rückzugszeit: %R1%</t>
   </si>
   <si>
@@ -435,6 +429,12 @@
   </si>
   <si>
     <t>Sofortkomplikationen: %K1%</t>
+  </si>
+  <si>
+    <t>Allgemeine Angaben:\n</t>
+  </si>
+  <si>
+    <t>\n\nUntersuchung\n</t>
   </si>
 </sst>
 </file>
@@ -805,10 +805,10 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +816,7 @@
     <col min="1" max="1" width="29.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6328125" customWidth="1"/>
-    <col min="4" max="4" width="94.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="26" style="3" customWidth="1"/>
@@ -894,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
         <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -951,7 +951,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -973,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -984,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -995,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1047,18 +1047,18 @@
         <v>18</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>28</v>
@@ -1067,15 +1067,15 @@
         <v>38</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -1084,29 +1084,29 @@
         <v>25</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1117,62 +1117,62 @@
         <v>25</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1194,37 +1194,37 @@
         <v>25</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -1241,18 +1241,18 @@
         <v>26</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1263,62 +1263,62 @@
         <v>26</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1326,12 +1326,12 @@
         <v>18</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>39</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1354,40 +1354,40 @@
         <v>27</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1395,69 +1395,69 @@
         <v>18</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C47" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="Q47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1465,76 +1465,76 @@
         <v>18</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K50" s="3"/>
       <c r="Q50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D51" s="3"/>
       <c r="J51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M51" s="1"/>
       <c r="P51" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C52" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="1"/>
       <c r="Q52" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C53" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L53" s="4"/>
       <c r="Q53" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
